--- a/pbelasting/input/201019_koppeltabel.xlsx
+++ b/pbelasting/input/201019_koppeltabel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Waternet Amsterdam\Schoon water - WaternetAnalyse\WaternetAnalyse\pbelasting\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Waternet Amsterdam\Schoon water - WaternetAnalyse\WaternetAnalyse\pbelasting\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E4A9F1-1296-4D01-8637-440D849217FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF65A44D-91F4-49B2-AA71-6B786BFDAE2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="namenBalansen201903240706" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blad2!$A$2:$AJ$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">namenBalansen201903240706!$A$1:$M$393</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">namenBalansen201903240706!$A$1:$T$396</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +37,37 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7D3B456A-CA0C-4CA1-9FC1-85154FBD71EE}</author>
+    <author>tc={59069F1E-5E56-4992-AC7D-59E19C2E14FD}</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{7D3B456A-CA0C-4CA1-9FC1-85154FBD71EE}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    1 is externe belasting, 2 kwel, 3 dijkse kwel
+Beantwoorden:
+    1a als peilbeheer</t>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{59069F1E-5E56-4992-AC7D-59E19C2E14FD}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    is min of totale belasting represetatief</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="901">
   <si>
     <t>2010-GAF_F002.xlsx</t>
   </si>
@@ -2687,13 +2716,67 @@
   </si>
   <si>
     <t>2400-GAF_F003.xlsx</t>
+  </si>
+  <si>
+    <t>min_inc</t>
+  </si>
+  <si>
+    <t>wensVoorAanpassing</t>
+  </si>
+  <si>
+    <t>is EAG bovenloop of doorvoersysteem?</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>inlaat1</t>
+  </si>
+  <si>
+    <t>inlaat2</t>
+  </si>
+  <si>
+    <t>inlaat3</t>
+  </si>
+  <si>
+    <t>inlaat4</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>2220-EAG-3_F004.xlsx</t>
+  </si>
+  <si>
+    <t>2220-EAG-3</t>
+  </si>
+  <si>
+    <t>Hoge dijk</t>
+  </si>
+  <si>
+    <t>2220-EAG-3_F004_S1.xlsx</t>
+  </si>
+  <si>
+    <t>2220-GAF_F005.xlsx</t>
+  </si>
+  <si>
+    <t>Het stedelijk gebied van NLP staat in open verbinding met BKP. Niet al het water vanuit Westwijk wordt dus afgevoerd via NLP. In de Noorderlegmeer zag ik dat we in de algemene tekst op de factsheet wel zeggen dat onnutte inlaat een grote belasting veroorzaakt. Na het gesprek met Hans en Sjaak denk ik dat dit niet klopt. Zij geven aan beperkt en in control water in te laten en een deel van het water uit westwijk gaat naar de BKP en niet naar NLP. Dus Factsheet aanpassen.</t>
+  </si>
+  <si>
+    <t>Volgens Sjaak en Hans komt er wel heel veel water uit de Westeinderplassen via getrapte peilvakken. Zou die post niet veel groter kunnen zijn. De post kassenwater moet kleiner.</t>
+  </si>
+  <si>
+    <t>doorvoer inlaat en aflaat</t>
+  </si>
+  <si>
+    <t>bovenloop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2869,6 +2952,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="36">
@@ -3250,7 +3339,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3300,6 +3389,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6604,6 +6696,12 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Laura Moria" id="{D2A4CA6F-90CD-4D82-B432-378B819E3E40}" userId="S::laura.moria@waternet.nl::f7aa10c1-76fa-4163-8f07-756cd2553788" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6901,30 +6999,50 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N1" dT="2020-12-08T09:14:44.95" personId="{D2A4CA6F-90CD-4D82-B432-378B819E3E40}" id="{7D3B456A-CA0C-4CA1-9FC1-85154FBD71EE}">
+    <text>1 is externe belasting, 2 kwel, 3 dijkse kwel</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2020-12-08T09:40:30.71" personId="{D2A4CA6F-90CD-4D82-B432-378B819E3E40}" id="{5FFDC988-1FF3-40DB-B6A4-19907B747DAF}" parentId="{7D3B456A-CA0C-4CA1-9FC1-85154FBD71EE}">
+    <text>1a als peilbeheer</text>
+  </threadedComment>
+  <threadedComment ref="R1" dT="2020-12-08T09:38:14.94" personId="{D2A4CA6F-90CD-4D82-B432-378B819E3E40}" id="{59069F1E-5E56-4992-AC7D-59E19C2E14FD}">
+    <text>is min of totale belasting represetatief</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O393"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:XFD124"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="26" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.29296875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="9.1171875" style="6"/>
-    <col min="6" max="6" width="11.52734375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="21.87890625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.1171875" style="6"/>
-    <col min="9" max="9" width="9.64453125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.46875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.1171875" style="6"/>
-    <col min="12" max="12" width="7.05859375" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.1171875" style="6"/>
+    <col min="2" max="2" width="11.3125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.1015625" style="6"/>
+    <col min="4" max="4" width="4.89453125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.1015625" style="6"/>
+    <col min="6" max="6" width="11.5234375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.1015625" style="6"/>
+    <col min="9" max="9" width="9.62890625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.47265625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.47265625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.15625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.1015625" style="6"/>
+    <col min="14" max="14" width="9.47265625" style="6" customWidth="1"/>
+    <col min="15" max="18" width="9.1015625" style="6"/>
+    <col min="19" max="19" width="10.3671875" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="9.1015625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>524</v>
       </c>
@@ -6964,8 +7082,29 @@
       <c r="M1" s="6" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N1" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -6988,7 +7127,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>866</v>
       </c>
@@ -7015,7 +7154,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>867</v>
       </c>
@@ -7042,7 +7181,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -7063,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -7083,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>659</v>
       </c>
@@ -7110,7 +7249,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -7130,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>660</v>
       </c>
@@ -7157,7 +7296,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -7178,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -7199,7 +7338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -7219,7 +7358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>661</v>
       </c>
@@ -7249,7 +7388,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -7269,7 +7408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>874</v>
       </c>
@@ -7294,8 +7433,11 @@
       <c r="K15" s="6" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="T15" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
@@ -7316,7 +7458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>662</v>
       </c>
@@ -7344,8 +7486,11 @@
       <c r="K17" s="6" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="T17" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -7365,7 +7510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
@@ -7395,7 +7540,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
@@ -7422,7 +7567,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -7443,7 +7588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -7463,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>663</v>
       </c>
@@ -7490,7 +7635,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
@@ -7510,7 +7655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>664</v>
       </c>
@@ -7536,8 +7681,11 @@
       <c r="K25" s="6" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="T25" s="23" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6" t="s">
         <v>15</v>
       </c>
@@ -7558,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6" t="s">
         <v>16</v>
       </c>
@@ -7585,7 +7733,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>653</v>
       </c>
@@ -7603,7 +7751,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>652</v>
       </c>
@@ -7621,7 +7769,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6" t="s">
         <v>558</v>
       </c>
@@ -7657,7 +7805,7 @@
         <v>-13.20554368</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6" t="s">
         <v>875</v>
       </c>
@@ -7680,7 +7828,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6" t="s">
         <v>17</v>
       </c>
@@ -7703,7 +7851,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6" t="s">
         <v>870</v>
       </c>
@@ -7714,8 +7862,7 @@
         <v>215</v>
       </c>
       <c r="D33" s="6">
-        <f>IF(AND(ISBLANK(E33),ISBLANK(F33)),0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="6">
         <v>2220</v>
@@ -7730,7 +7877,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6" t="s">
         <v>18</v>
       </c>
@@ -7757,7 +7904,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6" t="s">
         <v>19</v>
       </c>
@@ -7784,7 +7931,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6" t="s">
         <v>525</v>
       </c>
@@ -7813,7 +7960,7 @@
         <v>-13.591314069999999</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>876</v>
       </c>
@@ -7848,7 +7995,7 @@
         <v>-13.591314069999999</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6" t="s">
         <v>20</v>
       </c>
@@ -7875,7 +8022,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6" t="s">
         <v>21</v>
       </c>
@@ -7902,7 +8049,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6" t="s">
         <v>22</v>
       </c>
@@ -7929,7 +8076,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6" t="s">
         <v>23</v>
       </c>
@@ -7950,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6" t="s">
         <v>24</v>
       </c>
@@ -7971,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6" t="s">
         <v>25</v>
       </c>
@@ -7998,7 +8145,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6" t="s">
         <v>26</v>
       </c>
@@ -8025,7 +8172,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6" t="s">
         <v>27</v>
       </c>
@@ -8052,7 +8199,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6" t="s">
         <v>28</v>
       </c>
@@ -8073,7 +8220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6" t="s">
         <v>29</v>
       </c>
@@ -8094,7 +8241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6" t="s">
         <v>30</v>
       </c>
@@ -8121,7 +8268,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6" t="s">
         <v>31</v>
       </c>
@@ -8148,7 +8295,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6" t="s">
         <v>32</v>
       </c>
@@ -8169,7 +8316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>651</v>
       </c>
@@ -8186,7 +8333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="16" t="s">
         <v>877</v>
       </c>
@@ -8200,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
         <v>665</v>
       </c>
@@ -8227,7 +8374,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6" t="s">
         <v>33</v>
       </c>
@@ -8242,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7" t="s">
         <v>650</v>
       </c>
@@ -8259,7 +8406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="16" t="s">
         <v>650</v>
       </c>
@@ -8273,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>666</v>
       </c>
@@ -8300,7 +8447,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6" t="s">
         <v>34</v>
       </c>
@@ -8321,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7" t="s">
         <v>750</v>
       </c>
@@ -8345,7 +8492,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6" t="s">
         <v>559</v>
       </c>
@@ -8357,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6" t="s">
         <v>35</v>
       </c>
@@ -8369,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
         <v>749</v>
       </c>
@@ -8396,7 +8543,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6" t="s">
         <v>878</v>
       </c>
@@ -8413,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7" t="s">
         <v>667</v>
       </c>
@@ -8440,7 +8587,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7" t="s">
         <v>649</v>
       </c>
@@ -8452,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6" t="s">
         <v>881</v>
       </c>
@@ -8467,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7" t="s">
         <v>879</v>
       </c>
@@ -8487,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7" t="s">
         <v>880</v>
       </c>
@@ -8514,7 +8661,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="6" t="s">
         <v>36</v>
       </c>
@@ -8535,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="6" t="s">
         <v>37</v>
       </c>
@@ -8556,7 +8703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="16" t="s">
         <v>882</v>
       </c>
@@ -8576,7 +8723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7" t="s">
         <v>668</v>
       </c>
@@ -8606,7 +8753,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7" t="s">
         <v>648</v>
       </c>
@@ -8618,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="6" t="s">
         <v>38</v>
       </c>
@@ -8638,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7" t="s">
         <v>669</v>
       </c>
@@ -8665,7 +8812,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="6" t="s">
         <v>39</v>
       </c>
@@ -8695,7 +8842,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="6" t="s">
         <v>40</v>
       </c>
@@ -8731,7 +8878,7 @@
         <v>-2.8073422429999999</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="6" t="s">
         <v>40</v>
       </c>
@@ -8767,7 +8914,7 @@
         <v>-3.0295876970000002</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="6" t="s">
         <v>40</v>
       </c>
@@ -8803,7 +8950,7 @@
         <v>-3.7686190119999998</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="6" t="s">
         <v>41</v>
       </c>
@@ -8824,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="6" t="s">
         <v>42</v>
       </c>
@@ -8844,7 +8991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="6" t="s">
         <v>43</v>
       </c>
@@ -8864,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="6" t="s">
         <v>44</v>
       </c>
@@ -8876,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7" t="s">
         <v>647</v>
       </c>
@@ -8906,7 +9053,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="6" t="s">
         <v>45</v>
       </c>
@@ -8933,7 +9080,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="6" t="s">
         <v>49</v>
       </c>
@@ -8960,7 +9107,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6" t="s">
         <v>48</v>
       </c>
@@ -8986,7 +9133,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="6" t="s">
         <v>46</v>
       </c>
@@ -9006,7 +9153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="16" t="s">
         <v>775</v>
       </c>
@@ -9036,7 +9183,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="6" t="s">
         <v>47</v>
       </c>
@@ -9063,7 +9210,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="6" t="s">
         <v>50</v>
       </c>
@@ -9083,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="16" t="s">
         <v>776</v>
       </c>
@@ -9109,7 +9256,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="7" t="s">
         <v>670</v>
       </c>
@@ -9132,7 +9279,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="6" t="s">
         <v>51</v>
       </c>
@@ -9159,7 +9306,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="6" t="s">
         <v>52</v>
       </c>
@@ -9186,7 +9333,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="6" t="s">
         <v>53</v>
       </c>
@@ -9206,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="7" t="s">
         <v>671</v>
       </c>
@@ -9233,7 +9380,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -9260,7 +9407,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="6" t="s">
         <v>55</v>
       </c>
@@ -9287,7 +9434,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="6" t="s">
         <v>56</v>
       </c>
@@ -9314,7 +9461,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="7" t="s">
         <v>672</v>
       </c>
@@ -9344,7 +9491,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="6" t="s">
         <v>57</v>
       </c>
@@ -9364,7 +9511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6" t="s">
         <v>58</v>
       </c>
@@ -9384,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="7" t="s">
         <v>673</v>
       </c>
@@ -9411,7 +9558,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="7" t="s">
         <v>673</v>
       </c>
@@ -9438,7 +9585,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="6" t="s">
         <v>59</v>
       </c>
@@ -9459,7 +9606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="7" t="s">
         <v>674</v>
       </c>
@@ -9486,7 +9633,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="6" t="s">
         <v>60</v>
       </c>
@@ -9510,7 +9657,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="7" t="s">
         <v>675</v>
       </c>
@@ -9531,7 +9678,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="6" t="s">
         <v>61</v>
       </c>
@@ -9554,7 +9701,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="7" t="s">
         <v>676</v>
       </c>
@@ -9580,7 +9727,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
         <v>677</v>
       </c>
@@ -9616,7 +9763,7 @@
         <v>-1.6422614769999999</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7" t="s">
         <v>677</v>
       </c>
@@ -9652,7 +9799,7 @@
         <v>-1.6422614769999999</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7" t="s">
         <v>677</v>
       </c>
@@ -9688,7 +9835,7 @@
         <v>-1.6422614769999999</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="6" t="s">
         <v>62</v>
       </c>
@@ -9709,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="6" t="s">
         <v>63</v>
       </c>
@@ -9730,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="7" t="s">
         <v>678</v>
       </c>
@@ -9763,7 +9910,7 @@
         <v>-1.64226147711713</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="6" t="s">
         <v>64</v>
       </c>
@@ -9783,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="7" t="s">
         <v>679</v>
       </c>
@@ -9810,7 +9957,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="6" t="s">
         <v>65</v>
       </c>
@@ -9831,7 +9978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="6" t="s">
         <v>66</v>
       </c>
@@ -9858,7 +10005,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="6" t="s">
         <v>67</v>
       </c>
@@ -9879,7 +10026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="6" t="s">
         <v>541</v>
       </c>
@@ -9909,7 +10056,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="6" t="s">
         <v>68</v>
       </c>
@@ -9929,7 +10076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="7" t="s">
         <v>680</v>
       </c>
@@ -9956,7 +10103,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="6" t="s">
         <v>69</v>
       </c>
@@ -9977,7 +10124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="6" t="s">
         <v>70</v>
       </c>
@@ -9998,7 +10145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="6" t="s">
         <v>542</v>
       </c>
@@ -10019,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="7" t="s">
         <v>681</v>
       </c>
@@ -10046,7 +10193,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="6" t="s">
         <v>543</v>
       </c>
@@ -10067,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="7" t="s">
         <v>682</v>
       </c>
@@ -10097,7 +10244,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="6" t="s">
         <v>71</v>
       </c>
@@ -10118,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="6" t="s">
         <v>72</v>
       </c>
@@ -10139,7 +10286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="7" t="s">
         <v>683</v>
       </c>
@@ -10166,7 +10313,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="16" t="s">
         <v>777</v>
       </c>
@@ -10192,7 +10339,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="6" t="s">
         <v>73</v>
       </c>
@@ -10219,7 +10366,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="6" t="s">
         <v>74</v>
       </c>
@@ -10240,7 +10387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="6" t="s">
         <v>75</v>
       </c>
@@ -10263,7 +10410,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="16" t="s">
         <v>871</v>
       </c>
@@ -10286,7 +10433,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="16" t="s">
         <v>778</v>
       </c>
@@ -10312,7 +10459,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="6" t="s">
         <v>76</v>
       </c>
@@ -10333,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="6" t="s">
         <v>77</v>
       </c>
@@ -10356,7 +10503,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="16" t="s">
         <v>779</v>
       </c>
@@ -10383,7 +10530,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="6" t="s">
         <v>78</v>
       </c>
@@ -10404,7 +10551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="6" t="s">
         <v>79</v>
       </c>
@@ -10431,7 +10578,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="6" t="s">
         <v>80</v>
       </c>
@@ -10452,7 +10599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="6" t="s">
         <v>81</v>
       </c>
@@ -10475,7 +10622,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="16" t="s">
         <v>780</v>
       </c>
@@ -10502,7 +10649,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="6" t="s">
         <v>82</v>
       </c>
@@ -10523,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="7" t="s">
         <v>744</v>
       </c>
@@ -10559,7 +10706,7 @@
         <v>-0.97782443500000005</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="7" t="s">
         <v>557</v>
       </c>
@@ -10586,7 +10733,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="6" t="s">
         <v>83</v>
       </c>
@@ -10616,7 +10763,7 @@
         <v>1594510</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="6" t="s">
         <v>742</v>
       </c>
@@ -10638,7 +10785,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="6" t="s">
         <v>84</v>
       </c>
@@ -10668,7 +10815,7 @@
         <v>871799</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="7" t="s">
         <v>741</v>
       </c>
@@ -10687,7 +10834,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="6" t="s">
         <v>85</v>
       </c>
@@ -10714,7 +10861,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="6" t="s">
         <v>86</v>
       </c>
@@ -10735,7 +10882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="16" t="s">
         <v>781</v>
       </c>
@@ -10762,7 +10909,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="16" t="s">
         <v>782</v>
       </c>
@@ -10788,7 +10935,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="6" t="s">
         <v>87</v>
       </c>
@@ -10817,7 +10964,7 @@
         <v>-16.794208659999999</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="6" t="s">
         <v>88</v>
       </c>
@@ -10838,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="6" t="s">
         <v>89</v>
       </c>
@@ -10871,7 +11018,7 @@
         <v>-1.087510771</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="6" t="s">
         <v>90</v>
       </c>
@@ -10895,7 +11042,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="6" t="s">
         <v>90</v>
       </c>
@@ -10919,7 +11066,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="6" t="s">
         <v>748</v>
       </c>
@@ -10951,7 +11098,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="6" t="s">
         <v>748</v>
       </c>
@@ -10983,7 +11130,7 @@
         <v>-1.087510771</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="16" t="s">
         <v>783</v>
       </c>
@@ -10997,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="16" t="s">
         <v>784</v>
       </c>
@@ -11033,7 +11180,7 @@
         <v>-1.087510771</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="16" t="s">
         <v>784</v>
       </c>
@@ -11069,7 +11216,7 @@
         <v>-1.087510771</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="9" t="s">
         <v>751</v>
       </c>
@@ -11105,7 +11252,7 @@
         <v>-1.087510771</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="9" t="s">
         <v>751</v>
       </c>
@@ -11141,7 +11288,7 @@
         <v>-1.087510771</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="6" t="s">
         <v>91</v>
       </c>
@@ -11162,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="6" t="s">
         <v>92</v>
       </c>
@@ -11195,7 +11342,7 @@
         <v>-1.0702154109999999</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="6" t="s">
         <v>93</v>
       </c>
@@ -11216,7 +11363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="6" t="s">
         <v>94</v>
       </c>
@@ -11243,7 +11390,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="6" t="s">
         <v>95</v>
       </c>
@@ -11270,7 +11417,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="6" t="s">
         <v>544</v>
       </c>
@@ -11285,7 +11432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="6" t="s">
         <v>545</v>
       </c>
@@ -11300,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="6" t="s">
         <v>97</v>
       </c>
@@ -11327,7 +11474,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="6" t="s">
         <v>96</v>
       </c>
@@ -11350,7 +11497,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="16" t="s">
         <v>785</v>
       </c>
@@ -11377,7 +11524,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="6" t="s">
         <v>108</v>
       </c>
@@ -11409,8 +11556,11 @@
       <c r="L182" s="6">
         <v>509.02196298391681</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="S182" s="6" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="6" t="s">
         <v>98</v>
       </c>
@@ -11431,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="6" t="s">
         <v>99</v>
       </c>
@@ -11466,8 +11616,11 @@
       <c r="M184" s="6">
         <v>-1.0851886129999999</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="S184" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="6" t="s">
         <v>100</v>
       </c>
@@ -11488,7 +11641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="6" t="s">
         <v>101</v>
       </c>
@@ -11523,8 +11676,11 @@
       <c r="M186" s="13">
         <v>-12.368171999999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="S186" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="6" t="s">
         <v>102</v>
       </c>
@@ -11545,7 +11701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="6" t="s">
         <v>103</v>
       </c>
@@ -11580,8 +11736,11 @@
       <c r="M188" s="6">
         <v>-0.93115156700000001</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="S188" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="6" t="s">
         <v>105</v>
       </c>
@@ -11607,8 +11766,11 @@
       <c r="K189" s="6" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="S189" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="6" t="s">
         <v>104</v>
       </c>
@@ -11629,7 +11791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="6" t="s">
         <v>106</v>
       </c>
@@ -11649,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="6" t="s">
         <v>107</v>
       </c>
@@ -11678,7 +11840,7 @@
         <v>-0.98439878000000003</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="16" t="s">
         <v>786</v>
       </c>
@@ -11710,8 +11872,11 @@
       <c r="M193" s="6">
         <v>-0.98439878000000003</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="S193" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="6" t="s">
         <v>109</v>
       </c>
@@ -11734,7 +11899,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="16" t="s">
         <v>787</v>
       </c>
@@ -11761,7 +11926,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="6" t="s">
         <v>110</v>
       </c>
@@ -11784,7 +11949,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="16" t="s">
         <v>788</v>
       </c>
@@ -11811,7 +11976,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="7" t="s">
         <v>684</v>
       </c>
@@ -11829,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="7" t="s">
         <v>685</v>
       </c>
@@ -11860,7 +12025,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="7" t="s">
         <v>686</v>
       </c>
@@ -11891,7 +12056,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="7" t="s">
         <v>687</v>
       </c>
@@ -11909,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="7" t="s">
         <v>688</v>
       </c>
@@ -11940,7 +12105,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="7" t="s">
         <v>689</v>
       </c>
@@ -11971,7 +12136,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="7" t="s">
         <v>690</v>
       </c>
@@ -11999,7 +12164,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="7" t="s">
         <v>691</v>
       </c>
@@ -12027,7 +12192,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="6" t="s">
         <v>111</v>
       </c>
@@ -12047,7 +12212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="6" t="s">
         <v>111</v>
       </c>
@@ -12067,7 +12232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="7" t="s">
         <v>692</v>
       </c>
@@ -12084,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="7" t="s">
         <v>693</v>
       </c>
@@ -12119,7 +12284,7 @@
         <v>-1.433074371</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="7" t="s">
         <v>693</v>
       </c>
@@ -12145,7 +12310,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="7" t="s">
         <v>693</v>
       </c>
@@ -12172,7 +12337,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="6" t="s">
         <v>112</v>
       </c>
@@ -12192,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="7" t="s">
         <v>694</v>
       </c>
@@ -12228,7 +12393,7 @@
         <v>-0.88376249500000004</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="7" t="s">
         <v>694</v>
       </c>
@@ -12264,7 +12429,7 @@
         <v>-0.69758297599999997</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="6" t="s">
         <v>113</v>
       </c>
@@ -12284,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="7" t="s">
         <v>695</v>
       </c>
@@ -12320,7 +12485,7 @@
         <v>-1.433074371</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="7" t="s">
         <v>865</v>
       </c>
@@ -12345,7 +12510,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="6" t="s">
         <v>114</v>
       </c>
@@ -12362,7 +12527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="6" t="s">
         <v>114</v>
       </c>
@@ -12379,7 +12544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="6" t="s">
         <v>114</v>
       </c>
@@ -12396,7 +12561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="6" t="s">
         <v>115</v>
       </c>
@@ -12417,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="6" t="s">
         <v>546</v>
       </c>
@@ -12452,7 +12617,7 @@
         <v>-2.2288161390000001</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="6" t="s">
         <v>546</v>
       </c>
@@ -12487,7 +12652,7 @@
         <v>-2.2288161390000001</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="6" t="s">
         <v>547</v>
       </c>
@@ -12504,7 +12669,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="16" t="s">
         <v>789</v>
       </c>
@@ -12518,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="16" t="s">
         <v>790</v>
       </c>
@@ -12551,7 +12716,7 @@
         <v>-2.2288161390000001</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="6" t="s">
         <v>116</v>
       </c>
@@ -12574,7 +12739,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="6" t="s">
         <v>872</v>
       </c>
@@ -12601,7 +12766,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="6" t="s">
         <v>117</v>
       </c>
@@ -12624,7 +12789,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="16" t="s">
         <v>791</v>
       </c>
@@ -12651,7 +12816,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="6" t="s">
         <v>119</v>
       </c>
@@ -12672,7 +12837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="6" t="s">
         <v>120</v>
       </c>
@@ -12693,7 +12858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="6" t="s">
         <v>118</v>
       </c>
@@ -12713,7 +12878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="7" t="s">
         <v>696</v>
       </c>
@@ -12743,7 +12908,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="6" t="s">
         <v>121</v>
       </c>
@@ -12766,7 +12931,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="6" t="s">
         <v>873</v>
       </c>
@@ -12793,7 +12958,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="6" t="s">
         <v>122</v>
       </c>
@@ -12820,7 +12985,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="6" t="s">
         <v>752</v>
       </c>
@@ -12838,7 +13003,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="6" t="s">
         <v>752</v>
       </c>
@@ -12853,7 +13018,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="16" t="s">
         <v>792</v>
       </c>
@@ -12874,7 +13039,7 @@
       </c>
       <c r="O240"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="16" t="s">
         <v>793</v>
       </c>
@@ -12901,7 +13066,7 @@
       </c>
       <c r="O241"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="16" t="s">
         <v>793</v>
       </c>
@@ -12928,7 +13093,7 @@
       </c>
       <c r="O242"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="16" t="s">
         <v>794</v>
       </c>
@@ -12949,7 +13114,7 @@
       </c>
       <c r="O243"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="16" t="s">
         <v>795</v>
       </c>
@@ -12976,7 +13141,7 @@
       </c>
       <c r="O244"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="6" t="s">
         <v>753</v>
       </c>
@@ -13003,7 +13168,7 @@
         <v>-1.37</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="16" t="s">
         <v>796</v>
       </c>
@@ -13023,7 +13188,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="16" t="s">
         <v>797</v>
       </c>
@@ -13049,7 +13214,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="6" t="s">
         <v>754</v>
       </c>
@@ -13067,7 +13232,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="16" t="s">
         <v>798</v>
       </c>
@@ -13093,7 +13258,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="6" t="s">
         <v>123</v>
       </c>
@@ -13116,7 +13281,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="16" t="s">
         <v>799</v>
       </c>
@@ -13143,7 +13308,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="6" t="s">
         <v>124</v>
       </c>
@@ -13166,7 +13331,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="16" t="s">
         <v>800</v>
       </c>
@@ -13193,7 +13358,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="6" t="s">
         <v>125</v>
       </c>
@@ -13216,7 +13381,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="16" t="s">
         <v>801</v>
       </c>
@@ -13243,7 +13408,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="6" t="s">
         <v>126</v>
       </c>
@@ -13272,7 +13437,7 @@
         <v>570.58101659624117</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="16" t="s">
         <v>802</v>
       </c>
@@ -13305,7 +13470,7 @@
         <v>570.58101659624117</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="6" t="s">
         <v>127</v>
       </c>
@@ -13326,7 +13491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="16" t="s">
         <v>803</v>
       </c>
@@ -13362,7 +13527,7 @@
         <v>-11.37671321</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="6" t="s">
         <v>128</v>
       </c>
@@ -13382,7 +13547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="7" t="s">
         <v>697</v>
       </c>
@@ -13412,7 +13577,7 @@
         <v>207469</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="6" t="s">
         <v>129</v>
       </c>
@@ -13445,7 +13610,7 @@
         <v>299534</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="6" t="s">
         <v>130</v>
       </c>
@@ -13478,7 +13643,7 @@
         <v>357.08070152277901</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="6" t="s">
         <v>131</v>
       </c>
@@ -13505,7 +13670,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="6" t="s">
         <v>132</v>
       </c>
@@ -13526,7 +13691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="7" t="s">
         <v>698</v>
       </c>
@@ -13558,7 +13723,7 @@
         <v>715.86623855298558</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="6" t="s">
         <v>133</v>
       </c>
@@ -13578,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="6" t="s">
         <v>134</v>
       </c>
@@ -13599,7 +13764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="7" t="s">
         <v>699</v>
       </c>
@@ -13632,7 +13797,7 @@
         <v>2573034</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="6" t="s">
         <v>135</v>
       </c>
@@ -13652,7 +13817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="6" t="s">
         <v>136</v>
       </c>
@@ -13675,7 +13840,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="16" t="s">
         <v>804</v>
       </c>
@@ -13699,7 +13864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="6" t="s">
         <v>137</v>
       </c>
@@ -13720,7 +13885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="6" t="s">
         <v>138</v>
       </c>
@@ -13743,7 +13908,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="16" t="s">
         <v>805</v>
       </c>
@@ -13770,7 +13935,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="6" t="s">
         <v>139</v>
       </c>
@@ -13793,7 +13958,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="16" t="s">
         <v>806</v>
       </c>
@@ -13820,7 +13985,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="6" t="s">
         <v>140</v>
       </c>
@@ -13850,7 +14015,7 @@
         <v>601.80199202063136</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="6" t="s">
         <v>141</v>
       </c>
@@ -13877,7 +14042,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="6" t="s">
         <v>142</v>
       </c>
@@ -13904,7 +14069,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="6" t="s">
         <v>143</v>
       </c>
@@ -13924,7 +14089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="7" t="s">
         <v>700</v>
       </c>
@@ -13951,7 +14116,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="6" t="s">
         <v>144</v>
       </c>
@@ -13978,7 +14143,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="6" t="s">
         <v>145</v>
       </c>
@@ -14007,7 +14172,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="16" t="s">
         <v>807</v>
       </c>
@@ -14034,7 +14199,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="6" t="s">
         <v>146</v>
       </c>
@@ -14057,7 +14222,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="16" t="s">
         <v>808</v>
       </c>
@@ -14084,7 +14249,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="6" t="s">
         <v>147</v>
       </c>
@@ -14111,7 +14276,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="6" t="s">
         <v>148</v>
       </c>
@@ -14138,7 +14303,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="6" t="s">
         <v>154</v>
       </c>
@@ -14159,7 +14324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="6" t="s">
         <v>745</v>
       </c>
@@ -14185,7 +14350,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="6" t="s">
         <v>149</v>
       </c>
@@ -14203,7 +14368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="6" t="s">
         <v>150</v>
       </c>
@@ -14221,7 +14386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="6" t="s">
         <v>151</v>
       </c>
@@ -14244,7 +14409,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="6" t="s">
         <v>152</v>
       </c>
@@ -14268,7 +14433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="6" t="s">
         <v>153</v>
       </c>
@@ -14288,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="16" t="s">
         <v>809</v>
       </c>
@@ -14312,7 +14477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="16" t="s">
         <v>810</v>
       </c>
@@ -14338,7 +14503,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="16" t="s">
         <v>811</v>
       </c>
@@ -14364,7 +14529,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="16" t="s">
         <v>812</v>
       </c>
@@ -14393,7 +14558,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="6" t="s">
         <v>155</v>
       </c>
@@ -14416,7 +14581,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="16" t="s">
         <v>813</v>
       </c>
@@ -14443,7 +14608,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="6" t="s">
         <v>156</v>
       </c>
@@ -14464,7 +14629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="6" t="s">
         <v>157</v>
       </c>
@@ -14487,7 +14652,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="6" t="s">
         <v>157</v>
       </c>
@@ -14505,7 +14670,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="16" t="s">
         <v>814</v>
       </c>
@@ -14532,7 +14697,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="16" t="s">
         <v>815</v>
       </c>
@@ -14555,7 +14720,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="16" t="s">
         <v>816</v>
       </c>
@@ -14581,7 +14746,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="6" t="s">
         <v>158</v>
       </c>
@@ -14604,7 +14769,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="16" t="s">
         <v>817</v>
       </c>
@@ -14627,7 +14792,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="16" t="s">
         <v>818</v>
       </c>
@@ -14654,7 +14819,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="6" t="s">
         <v>159</v>
       </c>
@@ -14677,7 +14842,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="16" t="s">
         <v>819</v>
       </c>
@@ -14704,7 +14869,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="6" t="s">
         <v>160</v>
       </c>
@@ -14731,7 +14896,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="6" t="s">
         <v>161</v>
       </c>
@@ -14758,7 +14923,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="6" t="s">
         <v>162</v>
       </c>
@@ -14781,7 +14946,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="16" t="s">
         <v>820</v>
       </c>
@@ -14808,7 +14973,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="6" t="s">
         <v>164</v>
       </c>
@@ -14841,7 +15006,7 @@
         <v>163.38977718939458</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="6" t="s">
         <v>163</v>
       </c>
@@ -14859,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="9" t="s">
         <v>735</v>
       </c>
@@ -14892,7 +15057,7 @@
         <v>163.38977718939458</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="9" t="s">
         <v>735</v>
       </c>
@@ -14928,7 +15093,7 @@
         <v>-1.167752117</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="9" t="s">
         <v>735</v>
       </c>
@@ -14964,7 +15129,7 @@
         <v>-1.237261385</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="9" t="s">
         <v>735</v>
       </c>
@@ -15000,7 +15165,7 @@
         <v>-1.6799012120000001</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="9" t="s">
         <v>736</v>
       </c>
@@ -15033,7 +15198,7 @@
         <v>163.38977718939458</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="9" t="s">
         <v>736</v>
       </c>
@@ -15069,7 +15234,7 @@
         <v>-1.167752117</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="9" t="s">
         <v>736</v>
       </c>
@@ -15105,7 +15270,7 @@
         <v>-1.237261385</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="9" t="s">
         <v>736</v>
       </c>
@@ -15141,7 +15306,7 @@
         <v>-1.6799012120000001</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="16" t="s">
         <v>821</v>
       </c>
@@ -15155,7 +15320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="6" t="s">
         <v>165</v>
       </c>
@@ -15176,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="6" t="s">
         <v>166</v>
       </c>
@@ -15209,7 +15374,7 @@
         <v>-1.167752117</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="6" t="s">
         <v>167</v>
       </c>
@@ -15230,7 +15395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="6" t="s">
         <v>168</v>
       </c>
@@ -15263,7 +15428,7 @@
         <v>-1.237261385</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="6" t="s">
         <v>169</v>
       </c>
@@ -15284,7 +15449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="6" t="s">
         <v>170</v>
       </c>
@@ -15307,7 +15472,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="16" t="s">
         <v>822</v>
       </c>
@@ -15334,7 +15499,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="6" t="s">
         <v>171</v>
       </c>
@@ -15355,7 +15520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="6" t="s">
         <v>172</v>
       </c>
@@ -15384,7 +15549,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="16" t="s">
         <v>823</v>
       </c>
@@ -15417,7 +15582,7 @@
         <v>-1.6799012120000001</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="6" t="s">
         <v>173</v>
       </c>
@@ -15440,7 +15605,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="16" t="s">
         <v>824</v>
       </c>
@@ -15467,7 +15632,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="6" t="s">
         <v>174</v>
       </c>
@@ -15490,7 +15655,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="16" t="s">
         <v>825</v>
       </c>
@@ -15517,7 +15682,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="6" t="s">
         <v>175</v>
       </c>
@@ -15540,7 +15705,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="16" t="s">
         <v>826</v>
       </c>
@@ -15567,7 +15732,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="6" t="s">
         <v>176</v>
       </c>
@@ -15588,7 +15753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="6" t="s">
         <v>177</v>
       </c>
@@ -15615,7 +15780,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="6" t="s">
         <v>178</v>
       </c>
@@ -15642,7 +15807,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="6" t="s">
         <v>179</v>
       </c>
@@ -15659,8 +15824,11 @@
       <c r="H348" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="K348" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="6" t="s">
         <v>548</v>
       </c>
@@ -15680,7 +15848,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="16" t="s">
         <v>827</v>
       </c>
@@ -15704,7 +15872,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="6" t="s">
         <v>180</v>
       </c>
@@ -15724,8 +15892,11 @@
       <c r="H351" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="K351" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="16" t="s">
         <v>828</v>
       </c>
@@ -15745,8 +15916,11 @@
       <c r="H352" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K352" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="353" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="16" t="s">
         <v>829</v>
       </c>
@@ -15768,8 +15942,17 @@
       <c r="H353" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K353" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="P353" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="R353" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="354" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="6" t="s">
         <v>181</v>
       </c>
@@ -15796,7 +15979,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="6" t="s">
         <v>182</v>
       </c>
@@ -15817,7 +16000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="6" t="s">
         <v>183</v>
       </c>
@@ -15844,7 +16027,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="6" t="s">
         <v>185</v>
       </c>
@@ -15865,7 +16048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="6" t="s">
         <v>184</v>
       </c>
@@ -15888,7 +16071,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="16" t="s">
         <v>830</v>
       </c>
@@ -15911,7 +16094,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="16" t="s">
         <v>831</v>
       </c>
@@ -15938,7 +16121,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="6" t="s">
         <v>186</v>
       </c>
@@ -15959,7 +16142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="6" t="s">
         <v>187</v>
       </c>
@@ -15980,7 +16163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="6" t="s">
         <v>188</v>
       </c>
@@ -16003,7 +16186,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="16" t="s">
         <v>833</v>
       </c>
@@ -16029,7 +16212,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="16" t="s">
         <v>832</v>
       </c>
@@ -16055,7 +16238,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="6" t="s">
         <v>189</v>
       </c>
@@ -16076,7 +16259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="6" t="s">
         <v>190</v>
       </c>
@@ -16097,7 +16280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="6" t="s">
         <v>549</v>
       </c>
@@ -16112,7 +16295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="6" t="s">
         <v>550</v>
       </c>
@@ -16139,7 +16322,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="6" t="s">
         <v>191</v>
       </c>
@@ -16162,7 +16345,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="16" t="s">
         <v>834</v>
       </c>
@@ -16189,7 +16372,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="6" t="s">
         <v>192</v>
       </c>
@@ -16216,7 +16399,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="16" t="s">
         <v>835</v>
       </c>
@@ -16230,7 +16413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="16" t="s">
         <v>836</v>
       </c>
@@ -16256,7 +16439,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="6" t="s">
         <v>195</v>
       </c>
@@ -16283,7 +16466,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="6" t="s">
         <v>193</v>
       </c>
@@ -16304,7 +16487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="6" t="s">
         <v>194</v>
       </c>
@@ -16331,7 +16514,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="6" t="s">
         <v>196</v>
       </c>
@@ -16358,7 +16541,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="6" t="s">
         <v>197</v>
       </c>
@@ -16381,7 +16564,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="16" t="s">
         <v>837</v>
       </c>
@@ -16408,7 +16591,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="6" t="s">
         <v>198</v>
       </c>
@@ -16435,7 +16618,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="6" t="s">
         <v>199</v>
       </c>
@@ -16462,7 +16645,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="6" t="s">
         <v>200</v>
       </c>
@@ -16489,7 +16672,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="6" t="s">
         <v>201</v>
       </c>
@@ -16516,7 +16699,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="6" t="s">
         <v>202</v>
       </c>
@@ -16537,7 +16720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="6" t="s">
         <v>203</v>
       </c>
@@ -16570,7 +16753,7 @@
         <v>-15.980524239999999</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="6" t="s">
         <v>204</v>
       </c>
@@ -16597,7 +16780,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="6" t="s">
         <v>205</v>
       </c>
@@ -16624,7 +16807,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="6" t="s">
         <v>551</v>
       </c>
@@ -16639,7 +16822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="6" t="s">
         <v>206</v>
       </c>
@@ -16668,7 +16851,7 @@
         <v>-2.2288161390000001</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="6" t="s">
         <v>552</v>
       </c>
@@ -16683,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="16" t="s">
         <v>838</v>
       </c>
@@ -16697,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="6" t="s">
         <v>540</v>
       </c>
@@ -16712,15 +16895,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A394" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D394" s="6">
+        <f t="shared" ref="D394" si="12">IF(AND(ISBLANK(E394),ISBLANK(F394)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F394" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="G394" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="H394" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A395" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D395" s="6">
+        <v>0</v>
+      </c>
+      <c r="F395" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="G395" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="H395" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A396" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D396" s="6">
+        <f>IF(AND(ISBLANK(E396),ISBLANK(F396)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E396" s="6">
+        <v>2220</v>
+      </c>
+      <c r="G396" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H396" s="6">
+        <v>0</v>
+      </c>
+      <c r="K396" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M393" xr:uid="{BF5CFB67-EEC9-4D87-98C6-B0448CE1E052}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M393">
-      <sortCondition ref="A1:A393"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:T396" xr:uid="{AAE7E0FA-1A90-4C80-AC23-0A5F0C1C2FB9}"/>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16732,14 +16986,15 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="1"/>
-    <col min="2" max="2" width="49.1171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.9375" style="19"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="2" max="2" width="49.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.83984375" customWidth="1"/>
+    <col min="7" max="16384" width="8.9453125" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>658</v>
@@ -16765,7 +17020,7 @@
       <c r="X2" s="22"/>
       <c r="Y2" s="22"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="17">
         <v>140</v>
       </c>
@@ -16790,7 +17045,7 @@
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17">
         <v>141</v>
       </c>
@@ -16819,7 +17074,7 @@
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="17">
         <v>142</v>
       </c>
@@ -16848,7 +17103,7 @@
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="17">
         <v>143</v>
       </c>
@@ -16877,7 +17132,7 @@
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="17">
         <v>144</v>
       </c>
@@ -16906,7 +17161,7 @@
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="17">
         <v>145</v>
       </c>
@@ -16935,7 +17190,7 @@
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="17">
         <v>146</v>
       </c>
@@ -16964,7 +17219,7 @@
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="17">
         <v>147</v>
       </c>
@@ -16993,7 +17248,7 @@
       <c r="X10" s="21"/>
       <c r="Y10" s="21"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="17">
         <v>148</v>
       </c>
@@ -17022,7 +17277,7 @@
       <c r="X11" s="21"/>
       <c r="Y11" s="21"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="17">
         <v>149</v>
       </c>
@@ -17051,7 +17306,7 @@
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="17">
         <v>150</v>
       </c>
@@ -17080,7 +17335,7 @@
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="17">
         <v>151</v>
       </c>
@@ -17109,7 +17364,7 @@
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="17">
         <v>152</v>
       </c>
@@ -17138,7 +17393,7 @@
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="17">
         <v>153</v>
       </c>
@@ -17167,7 +17422,7 @@
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17">
         <v>154</v>
       </c>
@@ -17196,7 +17451,7 @@
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="17">
         <v>155</v>
       </c>
@@ -17225,7 +17480,7 @@
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="17">
         <v>156</v>
       </c>
@@ -17254,7 +17509,7 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17">
         <v>157</v>
       </c>
@@ -17283,7 +17538,7 @@
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="17">
         <v>158</v>
       </c>
@@ -17312,7 +17567,7 @@
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="17">
         <v>159</v>
       </c>
@@ -17341,7 +17596,7 @@
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="17">
         <v>160</v>
       </c>
@@ -17370,7 +17625,7 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="17">
         <v>161</v>
       </c>
@@ -17399,7 +17654,7 @@
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="17">
         <v>162</v>
       </c>
@@ -17428,7 +17683,7 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="17">
         <v>163</v>
       </c>
@@ -17457,7 +17712,7 @@
       <c r="X26" s="21"/>
       <c r="Y26" s="21"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="17">
         <v>164</v>
       </c>
@@ -17486,7 +17741,7 @@
       <c r="X27" s="21"/>
       <c r="Y27" s="21"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="17">
         <v>165</v>
       </c>
@@ -17515,7 +17770,7 @@
       <c r="X28" s="21"/>
       <c r="Y28" s="21"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="17">
         <v>166</v>
       </c>
@@ -17544,7 +17799,7 @@
       <c r="X29" s="21"/>
       <c r="Y29" s="21"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="17">
         <v>167</v>
       </c>
@@ -17573,7 +17828,7 @@
       <c r="X30" s="21"/>
       <c r="Y30" s="21"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="17">
         <v>168</v>
       </c>
@@ -17602,7 +17857,7 @@
       <c r="X31" s="21"/>
       <c r="Y31" s="21"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="17">
         <v>169</v>
       </c>
@@ -17631,7 +17886,7 @@
       <c r="X32" s="21"/>
       <c r="Y32" s="21"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="17">
         <v>170</v>
       </c>
@@ -17660,7 +17915,7 @@
       <c r="X33" s="21"/>
       <c r="Y33" s="21"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="17">
         <v>171</v>
       </c>
@@ -17689,7 +17944,7 @@
       <c r="X34" s="21"/>
       <c r="Y34" s="21"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="17">
         <v>172</v>
       </c>
@@ -17718,7 +17973,7 @@
       <c r="X35" s="21"/>
       <c r="Y35" s="21"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="17">
         <v>173</v>
       </c>
@@ -17747,7 +18002,7 @@
       <c r="X36" s="21"/>
       <c r="Y36" s="21"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="17">
         <v>174</v>
       </c>
@@ -17776,7 +18031,7 @@
       <c r="X37" s="21"/>
       <c r="Y37" s="21"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="17">
         <v>175</v>
       </c>
@@ -17805,7 +18060,7 @@
       <c r="X38" s="21"/>
       <c r="Y38" s="21"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="17">
         <v>176</v>
       </c>
@@ -17834,7 +18089,7 @@
       <c r="X39" s="21"/>
       <c r="Y39" s="21"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="17">
         <v>177</v>
       </c>
@@ -17863,7 +18118,7 @@
       <c r="X40" s="21"/>
       <c r="Y40" s="21"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="17">
         <v>178</v>
       </c>
@@ -17892,7 +18147,7 @@
       <c r="X41" s="21"/>
       <c r="Y41" s="21"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="17">
         <v>179</v>
       </c>
@@ -17921,7 +18176,7 @@
       <c r="X42" s="21"/>
       <c r="Y42" s="21"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="17">
         <v>180</v>
       </c>
@@ -17950,7 +18205,7 @@
       <c r="X43" s="22"/>
       <c r="Y43" s="22"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="17">
         <v>181</v>
       </c>
@@ -17979,7 +18234,7 @@
       <c r="X44" s="21"/>
       <c r="Y44" s="21"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="17">
         <v>182</v>
       </c>
@@ -18008,7 +18263,7 @@
       <c r="X45" s="21"/>
       <c r="Y45" s="21"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="17">
         <v>183</v>
       </c>
@@ -18037,7 +18292,7 @@
       <c r="X46" s="21"/>
       <c r="Y46" s="21"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="17">
         <v>184</v>
       </c>
@@ -18066,7 +18321,7 @@
       <c r="X47" s="21"/>
       <c r="Y47" s="21"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="17">
         <v>185</v>
       </c>
@@ -18095,7 +18350,7 @@
       <c r="X48" s="21"/>
       <c r="Y48" s="21"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="17">
         <v>186</v>
       </c>
@@ -18124,7 +18379,7 @@
       <c r="X49" s="21"/>
       <c r="Y49" s="21"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="17">
         <v>187</v>
       </c>
@@ -18153,7 +18408,7 @@
       <c r="X50" s="21"/>
       <c r="Y50" s="21"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="17">
         <v>188</v>
       </c>
@@ -18182,7 +18437,7 @@
       <c r="X51" s="21"/>
       <c r="Y51" s="21"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="17">
         <v>189</v>
       </c>
@@ -18211,7 +18466,7 @@
       <c r="X52" s="21"/>
       <c r="Y52" s="21"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="17">
         <v>190</v>
       </c>
@@ -18240,7 +18495,7 @@
       <c r="X53" s="21"/>
       <c r="Y53" s="21"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="17">
         <v>191</v>
       </c>
@@ -18269,7 +18524,7 @@
       <c r="X54" s="21"/>
       <c r="Y54" s="21"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="17">
         <v>192</v>
       </c>
@@ -18298,7 +18553,7 @@
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="17">
         <v>193</v>
       </c>
@@ -18327,7 +18582,7 @@
       <c r="X56" s="21"/>
       <c r="Y56" s="21"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="17">
         <v>194</v>
       </c>
@@ -18356,7 +18611,7 @@
       <c r="X57" s="21"/>
       <c r="Y57" s="21"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="17">
         <v>195</v>
       </c>
@@ -18385,7 +18640,7 @@
       <c r="X58" s="21"/>
       <c r="Y58" s="21"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="17">
         <v>196</v>
       </c>
@@ -18414,7 +18669,7 @@
       <c r="X59" s="21"/>
       <c r="Y59" s="21"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="17">
         <v>197</v>
       </c>
@@ -18443,7 +18698,7 @@
       <c r="X60" s="21"/>
       <c r="Y60" s="21"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="17">
         <v>198</v>
       </c>
@@ -18472,7 +18727,7 @@
       <c r="X61" s="21"/>
       <c r="Y61" s="21"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="17">
         <v>199</v>
       </c>
@@ -18501,7 +18756,7 @@
       <c r="X62" s="21"/>
       <c r="Y62" s="21"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="17">
         <v>200</v>
       </c>
@@ -18530,7 +18785,7 @@
       <c r="X63" s="21"/>
       <c r="Y63" s="21"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="17">
         <v>201</v>
       </c>
@@ -18559,7 +18814,7 @@
       <c r="X64" s="21"/>
       <c r="Y64" s="21"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="17">
         <v>202</v>
       </c>
@@ -18588,7 +18843,7 @@
       <c r="X65" s="21"/>
       <c r="Y65" s="21"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="17">
         <v>203</v>
       </c>
@@ -18617,7 +18872,7 @@
       <c r="X66" s="21"/>
       <c r="Y66" s="21"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="17">
         <v>204</v>
       </c>
@@ -18646,7 +18901,7 @@
       <c r="X67" s="21"/>
       <c r="Y67" s="21"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="17">
         <v>205</v>
       </c>
@@ -18675,7 +18930,7 @@
       <c r="X68" s="22"/>
       <c r="Y68" s="22"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="17">
         <v>206</v>
       </c>
@@ -18704,7 +18959,7 @@
       <c r="X69" s="22"/>
       <c r="Y69" s="22"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="17">
         <v>207</v>
       </c>
@@ -18733,7 +18988,7 @@
       <c r="X70" s="22"/>
       <c r="Y70" s="22"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="17">
         <v>208</v>
       </c>
@@ -18762,7 +19017,7 @@
       <c r="X71" s="21"/>
       <c r="Y71" s="21"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="17">
         <v>209</v>
       </c>
@@ -18791,7 +19046,7 @@
       <c r="X72" s="21"/>
       <c r="Y72" s="21"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="17">
         <v>210</v>
       </c>
@@ -18820,7 +19075,7 @@
       <c r="X73" s="21"/>
       <c r="Y73" s="21"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="17">
         <v>211</v>
       </c>
@@ -18849,7 +19104,7 @@
       <c r="X74" s="21"/>
       <c r="Y74" s="21"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="17">
         <v>212</v>
       </c>
@@ -18878,7 +19133,7 @@
       <c r="X75" s="21"/>
       <c r="Y75" s="21"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="17">
         <v>213</v>
       </c>
@@ -18907,7 +19162,7 @@
       <c r="X76" s="21"/>
       <c r="Y76" s="21"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="17">
         <v>214</v>
       </c>
@@ -18936,7 +19191,7 @@
       <c r="X77" s="21"/>
       <c r="Y77" s="21"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="17">
         <v>215</v>
       </c>
@@ -18965,7 +19220,7 @@
       <c r="X78" s="21"/>
       <c r="Y78" s="21"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="17">
         <v>216</v>
       </c>
@@ -18994,7 +19249,7 @@
       <c r="X79" s="21"/>
       <c r="Y79" s="21"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="17">
         <v>217</v>
       </c>
@@ -19023,7 +19278,7 @@
       <c r="X80" s="21"/>
       <c r="Y80" s="21"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="17">
         <v>218</v>
       </c>
@@ -19052,7 +19307,7 @@
       <c r="X81" s="21"/>
       <c r="Y81" s="21"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="17">
         <v>219</v>
       </c>
@@ -19081,7 +19336,7 @@
       <c r="X82" s="21"/>
       <c r="Y82" s="21"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="17">
         <v>220</v>
       </c>
@@ -19110,7 +19365,7 @@
       <c r="X83" s="21"/>
       <c r="Y83" s="21"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="17">
         <v>221</v>
       </c>
@@ -19139,7 +19394,7 @@
       <c r="X84" s="21"/>
       <c r="Y84" s="21"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="17">
         <v>222</v>
       </c>
@@ -19168,7 +19423,7 @@
       <c r="X85" s="21"/>
       <c r="Y85" s="21"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="17">
         <v>223</v>
       </c>
@@ -19197,7 +19452,7 @@
       <c r="X86" s="21"/>
       <c r="Y86" s="21"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="17">
         <v>224</v>
       </c>
@@ -19226,7 +19481,7 @@
       <c r="X87" s="21"/>
       <c r="Y87" s="21"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="17">
         <v>225</v>
       </c>
@@ -19255,7 +19510,7 @@
       <c r="X88" s="21"/>
       <c r="Y88" s="21"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="17">
         <v>226</v>
       </c>
@@ -19284,7 +19539,7 @@
       <c r="X89" s="21"/>
       <c r="Y89" s="21"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="17">
         <v>227</v>
       </c>
@@ -19313,7 +19568,7 @@
       <c r="X90" s="21"/>
       <c r="Y90" s="21"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="17">
         <v>228</v>
       </c>
@@ -19342,7 +19597,7 @@
       <c r="X91" s="21"/>
       <c r="Y91" s="21"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="17">
         <v>229</v>
       </c>
@@ -19371,7 +19626,7 @@
       <c r="X92" s="21"/>
       <c r="Y92" s="21"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="17">
         <v>230</v>
       </c>
@@ -19400,7 +19655,7 @@
       <c r="X93" s="21"/>
       <c r="Y93" s="21"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="17">
         <v>231</v>
       </c>
@@ -19429,7 +19684,7 @@
       <c r="X94" s="21"/>
       <c r="Y94" s="21"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="17">
         <v>232</v>
       </c>
@@ -19458,7 +19713,7 @@
       <c r="X95" s="21"/>
       <c r="Y95" s="21"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="17">
         <v>233</v>
       </c>
@@ -19487,7 +19742,7 @@
       <c r="X96" s="21"/>
       <c r="Y96" s="21"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="17">
         <v>234</v>
       </c>
@@ -19516,7 +19771,7 @@
       <c r="X97" s="21"/>
       <c r="Y97" s="21"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="17">
         <v>235</v>
       </c>
@@ -19545,7 +19800,7 @@
       <c r="X98" s="21"/>
       <c r="Y98" s="21"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="17">
         <v>236</v>
       </c>
@@ -19574,7 +19829,7 @@
       <c r="X99" s="21"/>
       <c r="Y99" s="21"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="17">
         <v>237</v>
       </c>
@@ -19603,7 +19858,7 @@
       <c r="X100" s="21"/>
       <c r="Y100" s="21"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="17">
         <v>238</v>
       </c>
@@ -19632,7 +19887,7 @@
       <c r="X101" s="21"/>
       <c r="Y101" s="21"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="17">
         <v>239</v>
       </c>
@@ -19661,7 +19916,7 @@
       <c r="X102" s="21"/>
       <c r="Y102" s="21"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="17">
         <v>240</v>
       </c>
@@ -19690,7 +19945,7 @@
       <c r="X103" s="21"/>
       <c r="Y103" s="21"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="17">
         <v>241</v>
       </c>
@@ -19719,7 +19974,7 @@
       <c r="X104" s="21"/>
       <c r="Y104" s="21"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="17">
         <v>242</v>
       </c>
@@ -19748,7 +20003,7 @@
       <c r="X105" s="21"/>
       <c r="Y105" s="21"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="17">
         <v>243</v>
       </c>
@@ -19777,7 +20032,7 @@
       <c r="X106" s="21"/>
       <c r="Y106" s="21"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="17">
         <v>244</v>
       </c>
@@ -19806,7 +20061,7 @@
       <c r="X107" s="21"/>
       <c r="Y107" s="21"/>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="17">
         <v>245</v>
       </c>
@@ -19835,7 +20090,7 @@
       <c r="X108" s="21"/>
       <c r="Y108" s="21"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="17">
         <v>246</v>
       </c>
@@ -19864,7 +20119,7 @@
       <c r="X109" s="21"/>
       <c r="Y109" s="21"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="17">
         <v>247</v>
       </c>
@@ -19893,7 +20148,7 @@
       <c r="X110" s="21"/>
       <c r="Y110" s="21"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="17">
         <v>248</v>
       </c>
@@ -19922,7 +20177,7 @@
       <c r="X111" s="21"/>
       <c r="Y111" s="21"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="17">
         <v>249</v>
       </c>
@@ -19951,7 +20206,7 @@
       <c r="X112" s="21"/>
       <c r="Y112" s="21"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="17">
         <v>250</v>
       </c>
@@ -19980,7 +20235,7 @@
       <c r="X113" s="21"/>
       <c r="Y113" s="21"/>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="17">
         <v>251</v>
       </c>
@@ -20009,7 +20264,7 @@
       <c r="X114" s="21"/>
       <c r="Y114" s="21"/>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="17">
         <v>252</v>
       </c>
@@ -20038,7 +20293,7 @@
       <c r="X115" s="21"/>
       <c r="Y115" s="21"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="17">
         <v>253</v>
       </c>
@@ -20067,7 +20322,7 @@
       <c r="X116" s="21"/>
       <c r="Y116" s="21"/>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="17">
         <v>254</v>
       </c>
@@ -20096,7 +20351,7 @@
       <c r="X117" s="21"/>
       <c r="Y117" s="21"/>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="17">
         <v>255</v>
       </c>
@@ -20125,7 +20380,7 @@
       <c r="X118" s="21"/>
       <c r="Y118" s="21"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="17">
         <v>256</v>
       </c>
@@ -20154,7 +20409,7 @@
       <c r="X119" s="21"/>
       <c r="Y119" s="21"/>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="17">
         <v>257</v>
       </c>
@@ -20183,7 +20438,7 @@
       <c r="X120" s="21"/>
       <c r="Y120" s="21"/>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="17">
         <v>258</v>
       </c>
@@ -20212,7 +20467,7 @@
       <c r="X121" s="21"/>
       <c r="Y121" s="21"/>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="17">
         <v>259</v>
       </c>
@@ -20241,7 +20496,7 @@
       <c r="X122" s="21"/>
       <c r="Y122" s="21"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="17">
         <v>260</v>
       </c>
@@ -20270,7 +20525,7 @@
       <c r="X123" s="21"/>
       <c r="Y123" s="21"/>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="17">
         <v>261</v>
       </c>
@@ -20299,7 +20554,7 @@
       <c r="X124" s="21"/>
       <c r="Y124" s="21"/>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="17">
         <v>262</v>
       </c>
@@ -20328,7 +20583,7 @@
       <c r="X125" s="21"/>
       <c r="Y125" s="21"/>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="17">
         <v>263</v>
       </c>
@@ -20357,7 +20612,7 @@
       <c r="X126" s="21"/>
       <c r="Y126" s="21"/>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="17">
         <v>264</v>
       </c>
@@ -20386,7 +20641,7 @@
       <c r="X127" s="21"/>
       <c r="Y127" s="21"/>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="17">
         <v>265</v>
       </c>
@@ -20415,7 +20670,7 @@
       <c r="X128" s="21"/>
       <c r="Y128" s="21"/>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="17">
         <v>266</v>
       </c>
@@ -20444,7 +20699,7 @@
       <c r="X129" s="21"/>
       <c r="Y129" s="21"/>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="17">
         <v>267</v>
       </c>
@@ -20473,7 +20728,7 @@
       <c r="X130" s="21"/>
       <c r="Y130" s="21"/>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="17">
         <v>268</v>
       </c>
@@ -20502,7 +20757,7 @@
       <c r="X131" s="21"/>
       <c r="Y131" s="21"/>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="17">
         <v>269</v>
       </c>
@@ -20531,7 +20786,7 @@
       <c r="X132" s="21"/>
       <c r="Y132" s="21"/>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="17">
         <v>270</v>
       </c>
@@ -20560,7 +20815,7 @@
       <c r="X133" s="21"/>
       <c r="Y133" s="21"/>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="17">
         <v>271</v>
       </c>
@@ -20589,7 +20844,7 @@
       <c r="X134" s="21"/>
       <c r="Y134" s="21"/>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="17">
         <v>272</v>
       </c>
@@ -20618,7 +20873,7 @@
       <c r="X135" s="21"/>
       <c r="Y135" s="21"/>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="17">
         <v>273</v>
       </c>
@@ -20647,7 +20902,7 @@
       <c r="X136" s="21"/>
       <c r="Y136" s="21"/>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="17">
         <v>274</v>
       </c>
@@ -20676,7 +20931,7 @@
       <c r="X137" s="21"/>
       <c r="Y137" s="21"/>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="17">
         <v>275</v>
       </c>
@@ -20705,7 +20960,7 @@
       <c r="X138" s="21"/>
       <c r="Y138" s="21"/>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="17">
         <v>276</v>
       </c>
@@ -20734,7 +20989,7 @@
       <c r="X139" s="21"/>
       <c r="Y139" s="21"/>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="17">
         <v>277</v>
       </c>
@@ -20763,7 +21018,7 @@
       <c r="X140" s="21"/>
       <c r="Y140" s="21"/>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="17">
         <v>278</v>
       </c>
@@ -20792,7 +21047,7 @@
       <c r="X141" s="21"/>
       <c r="Y141" s="21"/>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="17">
         <v>279</v>
       </c>
@@ -20821,7 +21076,7 @@
       <c r="X142" s="21"/>
       <c r="Y142" s="21"/>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="17">
         <v>280</v>
       </c>
@@ -20850,7 +21105,7 @@
       <c r="X143" s="21"/>
       <c r="Y143" s="21"/>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="17">
         <v>281</v>
       </c>
@@ -20879,7 +21134,7 @@
       <c r="X144" s="21"/>
       <c r="Y144" s="21"/>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="17">
         <v>282</v>
       </c>
@@ -20908,7 +21163,7 @@
       <c r="X145" s="21"/>
       <c r="Y145" s="21"/>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="17">
         <v>283</v>
       </c>
@@ -20937,7 +21192,7 @@
       <c r="X146" s="21"/>
       <c r="Y146" s="21"/>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="17">
         <v>284</v>
       </c>
@@ -20966,7 +21221,7 @@
       <c r="X147" s="21"/>
       <c r="Y147" s="21"/>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="17">
         <v>285</v>
       </c>
@@ -20995,7 +21250,7 @@
       <c r="X148" s="21"/>
       <c r="Y148" s="21"/>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="17">
         <v>286</v>
       </c>
@@ -21024,7 +21279,7 @@
       <c r="X149" s="21"/>
       <c r="Y149" s="21"/>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="17">
         <v>287</v>
       </c>
@@ -21053,7 +21308,7 @@
       <c r="X150" s="21"/>
       <c r="Y150" s="21"/>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="17">
         <v>288</v>
       </c>
@@ -21082,7 +21337,7 @@
       <c r="X151" s="21"/>
       <c r="Y151" s="21"/>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="17">
         <v>289</v>
       </c>
@@ -21111,7 +21366,7 @@
       <c r="X152" s="21"/>
       <c r="Y152" s="21"/>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="17">
         <v>290</v>
       </c>
@@ -21140,7 +21395,7 @@
       <c r="X153" s="21"/>
       <c r="Y153" s="21"/>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="17">
         <v>291</v>
       </c>
@@ -21169,7 +21424,7 @@
       <c r="X154" s="21"/>
       <c r="Y154" s="21"/>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="17">
         <v>292</v>
       </c>
@@ -21198,7 +21453,7 @@
       <c r="X155" s="21"/>
       <c r="Y155" s="21"/>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="17">
         <v>293</v>
       </c>
@@ -21227,7 +21482,7 @@
       <c r="X156" s="21"/>
       <c r="Y156" s="21"/>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="17">
         <v>294</v>
       </c>
@@ -21256,7 +21511,7 @@
       <c r="X157" s="21"/>
       <c r="Y157" s="21"/>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="17">
         <v>295</v>
       </c>
@@ -21285,7 +21540,7 @@
       <c r="X158" s="21"/>
       <c r="Y158" s="21"/>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="17">
         <v>296</v>
       </c>
@@ -21314,7 +21569,7 @@
       <c r="X159" s="21"/>
       <c r="Y159" s="21"/>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="17">
         <v>297</v>
       </c>
@@ -21343,7 +21598,7 @@
       <c r="X160" s="21"/>
       <c r="Y160" s="21"/>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="17">
         <v>298</v>
       </c>
@@ -21372,7 +21627,7 @@
       <c r="X161" s="21"/>
       <c r="Y161" s="21"/>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="17">
         <v>299</v>
       </c>
@@ -21401,7 +21656,7 @@
       <c r="X162" s="21"/>
       <c r="Y162" s="21"/>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="17">
         <v>300</v>
       </c>
@@ -21430,7 +21685,7 @@
       <c r="X163" s="21"/>
       <c r="Y163" s="21"/>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="17">
         <v>301</v>
       </c>
@@ -21459,7 +21714,7 @@
       <c r="X164" s="21"/>
       <c r="Y164" s="21"/>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="17">
         <v>302</v>
       </c>
@@ -21488,7 +21743,7 @@
       <c r="X165" s="21"/>
       <c r="Y165" s="21"/>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="17">
         <v>303</v>
       </c>
@@ -21517,7 +21772,7 @@
       <c r="X166" s="21"/>
       <c r="Y166" s="21"/>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="17">
         <v>304</v>
       </c>
@@ -21546,7 +21801,7 @@
       <c r="X167" s="21"/>
       <c r="Y167" s="21"/>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="17">
         <v>305</v>
       </c>
@@ -21575,7 +21830,7 @@
       <c r="X168" s="21"/>
       <c r="Y168" s="21"/>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="17">
         <v>306</v>
       </c>
@@ -21604,7 +21859,7 @@
       <c r="X169" s="21"/>
       <c r="Y169" s="21"/>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="17">
         <v>307</v>
       </c>
@@ -21633,7 +21888,7 @@
       <c r="X170" s="21"/>
       <c r="Y170" s="21"/>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="17">
         <v>308</v>
       </c>
@@ -21662,7 +21917,7 @@
       <c r="X171" s="21"/>
       <c r="Y171" s="21"/>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="17">
         <v>309</v>
       </c>
@@ -21691,7 +21946,7 @@
       <c r="X172" s="21"/>
       <c r="Y172" s="21"/>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="17">
         <v>310</v>
       </c>
@@ -21720,7 +21975,7 @@
       <c r="X173" s="21"/>
       <c r="Y173" s="21"/>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="17">
         <v>311</v>
       </c>
@@ -21749,7 +22004,7 @@
       <c r="X174" s="21"/>
       <c r="Y174" s="21"/>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="17">
         <v>312</v>
       </c>
@@ -21778,7 +22033,7 @@
       <c r="X175" s="21"/>
       <c r="Y175" s="21"/>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="17">
         <v>313</v>
       </c>
@@ -21807,7 +22062,7 @@
       <c r="X176" s="21"/>
       <c r="Y176" s="21"/>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="17">
         <v>314</v>
       </c>
@@ -21836,7 +22091,7 @@
       <c r="X177" s="21"/>
       <c r="Y177" s="21"/>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="17">
         <v>315</v>
       </c>
@@ -21865,7 +22120,7 @@
       <c r="X178" s="21"/>
       <c r="Y178" s="21"/>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="17">
         <v>316</v>
       </c>
@@ -21894,7 +22149,7 @@
       <c r="X179" s="21"/>
       <c r="Y179" s="21"/>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="17">
         <v>317</v>
       </c>
@@ -21923,7 +22178,7 @@
       <c r="X180" s="21"/>
       <c r="Y180" s="21"/>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="17">
         <v>318</v>
       </c>
@@ -21936,7 +22191,7 @@
       </c>
       <c r="H181" s="20"/>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="17">
         <v>319</v>
       </c>
@@ -21948,7 +22203,7 @@
         <v>6540-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="17">
         <v>320</v>
       </c>
@@ -21960,7 +22215,7 @@
         <v>6540-GAF_F003.xlsx</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="17">
         <v>321</v>
       </c>
@@ -21972,7 +22227,7 @@
         <v>6540-GAF_F004.xlsx</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="17">
         <v>322</v>
       </c>
@@ -21984,7 +22239,7 @@
         <v>6540-GAF_F005.xlsx</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="17">
         <v>323</v>
       </c>
@@ -21996,7 +22251,7 @@
         <v>6550-GAF_F001.xlsx</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="17">
         <v>324</v>
       </c>
@@ -22008,7 +22263,7 @@
         <v>6550-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="17">
         <v>325</v>
       </c>
@@ -22020,7 +22275,7 @@
         <v>6590-EAG-1_F001.xlsx</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="17">
         <v>326</v>
       </c>
@@ -22032,7 +22287,7 @@
         <v>7010-EAG-1_F001.xlsx</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="17">
         <v>327</v>
       </c>
@@ -22044,7 +22299,7 @@
         <v>7010-EAG-1_F002.xlsx</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="17">
         <v>328</v>
       </c>
@@ -22056,7 +22311,7 @@
         <v>7060-EAG-1_F002.xlsx</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="17">
         <v>329</v>
       </c>
@@ -22068,7 +22323,7 @@
         <v>7060-EAG-1_F003.xlsx</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="17">
         <v>330</v>
       </c>
@@ -22080,7 +22335,7 @@
         <v>7060-EAG_F003.xlsx</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="17">
         <v>331</v>
       </c>
@@ -22092,7 +22347,7 @@
         <v>8020-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="17">
         <v>332</v>
       </c>
@@ -22104,7 +22359,7 @@
         <v>8030-EAG-2_F001.xlsx</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="17">
         <v>333</v>
       </c>
@@ -22116,7 +22371,7 @@
         <v>8030-EAG-2_F002.xlsx</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="17">
         <v>334</v>
       </c>
@@ -22128,7 +22383,7 @@
         <v>8030-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="17">
         <v>335</v>
       </c>
@@ -22140,7 +22395,7 @@
         <v>8040-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="17">
         <v>336</v>
       </c>
@@ -22152,7 +22407,7 @@
         <v>8050-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="17">
         <v>337</v>
       </c>
@@ -22164,7 +22419,7 @@
         <v>8060-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="17">
         <v>338</v>
       </c>
@@ -22176,7 +22431,7 @@
         <v>8070-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="17">
         <v>339</v>
       </c>
@@ -22188,7 +22443,7 @@
         <v>8070-GAF_F003.xlsx</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="17">
         <v>340</v>
       </c>
@@ -22200,7 +22455,7 @@
         <v>8080-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="17">
         <v>341</v>
       </c>
@@ -22212,7 +22467,7 @@
         <v>8090-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="17">
         <v>342</v>
       </c>
@@ -22224,7 +22479,7 @@
         <v>deTol-GAF_F001.xlsx</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="17">
         <v>343</v>
       </c>
@@ -22236,7 +22491,7 @@
         <v>GAF-3300-F002.xlsx</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="17">
         <v>344</v>
       </c>
@@ -22248,7 +22503,7 @@
         <v>Kockengen-GAF_F001.xlsx</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="17">
         <v>345</v>
       </c>
@@ -22260,7 +22515,7 @@
         <v>oudendam-GAF_F001.xlsx</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="17">
         <v>346</v>
       </c>
@@ -22272,7 +22527,7 @@
         <v>vader_0_Loos2a_test_malen2015.xlsx</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A210" s="2">
         <v>207</v>
       </c>
@@ -22284,7 +22539,7 @@
         <v>3360-EAG-15_F002.xlsx</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A211" s="2">
         <v>208</v>
       </c>
@@ -22296,7 +22551,7 @@
         <v>3360-EAG-16_F001.xlsx</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A212" s="2">
         <v>209</v>
       </c>
@@ -22308,7 +22563,7 @@
         <v>3360-EAG-16_F002.xlsx</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A213" s="2">
         <v>210</v>
       </c>
@@ -22320,7 +22575,7 @@
         <v>3360-EAG-16_MolenpolderNatuur_tm2017.xlsx</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A214" s="2">
         <v>211</v>
       </c>
@@ -22332,7 +22587,7 @@
         <v>3360-EAG-17_F001.xlsx</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A215" s="2">
         <v>212</v>
       </c>
@@ -22344,7 +22599,7 @@
         <v>3360-EAG-17_F002.xlsx</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A216" s="2">
         <v>213</v>
       </c>
@@ -22356,7 +22611,7 @@
         <v>3360-EAG-17_Westbroek_tm2017.xlsx</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A217" s="2">
         <v>214</v>
       </c>
@@ -22368,7 +22623,7 @@
         <v>3360-EAG-18_F002.xlsx</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A218" s="2">
         <v>215</v>
       </c>
@@ -22380,7 +22635,7 @@
         <v>3360-EAG-2_F002.xlsx</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A219" s="2">
         <v>216</v>
       </c>
@@ -22392,7 +22647,7 @@
         <v>3360-EAG-2_F003.xlsx</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A220" s="2">
         <v>217</v>
       </c>
@@ -22404,7 +22659,7 @@
         <v>3360-EAG-3_F002.xlsx</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A221" s="2">
         <v>218</v>
       </c>
@@ -22416,7 +22671,7 @@
         <v>3360-EAG-4_F002.xlsx</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A222" s="2">
         <v>219</v>
       </c>
@@ -22428,7 +22683,7 @@
         <v>3360-EAG-5_F002.xlsx</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A223" s="2">
         <v>220</v>
       </c>
@@ -22440,7 +22695,7 @@
         <v>3360-EAG-6_F002.xlsx</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A224" s="2">
         <v>221</v>
       </c>
@@ -22452,7 +22707,7 @@
         <v>3360-EAG-7_F002.xlsx</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A225" s="2">
         <v>222</v>
       </c>
@@ -22464,7 +22719,7 @@
         <v>3360-EAG-7_F003.xlsx</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A226" s="2">
         <v>223</v>
       </c>
@@ -22476,7 +22731,7 @@
         <v>3360-EAG-8_F002.xlsx</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A227" s="2">
         <v>224</v>
       </c>
@@ -22488,7 +22743,7 @@
         <v>3360-EAG-9_F002.xlsx</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A228" s="2">
         <v>225</v>
       </c>
@@ -22500,7 +22755,7 @@
         <v>3370-EAG-1-2-3_F002.xlsx</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A229" s="2">
         <v>226</v>
       </c>
@@ -22512,7 +22767,7 @@
         <v>3370-EAG-4_F002.xlsx</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A230" s="2">
         <v>227</v>
       </c>
@@ -22524,7 +22779,7 @@
         <v>3370-EAG-5_F002.xlsx</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A231" s="2">
         <v>228</v>
       </c>
@@ -22536,7 +22791,7 @@
         <v>4000-EAG-1-3-4-5-6-7_F001.xlsx</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A232" s="2">
         <v>229</v>
       </c>
@@ -22548,7 +22803,7 @@
         <v>4000-EAG-1-3-4-5-6-7_F003.xlsx</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A233" s="2">
         <v>230</v>
       </c>
@@ -22560,7 +22815,7 @@
         <v>4000-EAG-1-3-4-6-7-8_F004.xlsx</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A234" s="2">
         <v>231</v>
       </c>
@@ -22572,7 +22827,7 @@
         <v>4000-EAG-2_F001.xlsx</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A235" s="2">
         <v>232</v>
       </c>
@@ -22584,7 +22839,7 @@
         <v>4000-EAG-2_F002.xlsx</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A236" s="2">
         <v>233</v>
       </c>
@@ -22596,7 +22851,7 @@
         <v>4000_SGVboezem_tm2017a.xlsx</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A237" s="2">
         <v>234</v>
       </c>
@@ -22608,7 +22863,7 @@
         <v>4000_SGVboezem_tm2017b.xlsx</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A238" s="2">
         <v>235</v>
       </c>
@@ -22620,7 +22875,7 @@
         <v>4100-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A239" s="2">
         <v>236</v>
       </c>
@@ -22632,7 +22887,7 @@
         <v>4110-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A240" s="2">
         <v>237</v>
       </c>
@@ -22644,7 +22899,7 @@
         <v>4110-GAF_F003.xlsx</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A241" s="2">
         <v>238</v>
       </c>
@@ -22656,7 +22911,7 @@
         <v>4130-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A242" s="2">
         <v>239</v>
       </c>
@@ -22668,7 +22923,7 @@
         <v>4140-GAF_F001.xlsx</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A243" s="2">
         <v>240</v>
       </c>
@@ -22680,7 +22935,7 @@
         <v>4200-EAG-1-3-4_F002.xlsx</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A244" s="2">
         <v>241</v>
       </c>
@@ -22692,7 +22947,7 @@
         <v>4200-EAG-2_F002.xlsx</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A245" s="2">
         <v>242</v>
       </c>
@@ -22704,7 +22959,7 @@
         <v>4200-GAF_F002.xlsx</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A246" s="2">
         <v>243</v>
       </c>
@@ -22716,7 +22971,7 @@
         <v>4210-EAG-1-2-3-5_F001.xlsx</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="58.35" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:3" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="3" t="s">
         <v>774</v>
       </c>
@@ -22729,6 +22984,38 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
+    <Entiteit_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Record</Entiteit_x0020_type>
+    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-183321</_dlc_DocId>
+    <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
+    <TaxCatchAll xmlns="d59e9867-4acc-40d5-91da-91f4047d1695"/>
+    <Omschrijving xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Aanmaakdatum xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <Document_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
+      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-183321</Url>
+      <Description>PNHZET2ZRHHM-1647798991-183321</Description>
+    </_dlc_DocIdUrl>
+    <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -22778,39 +23065,12 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="7c1d69d6-3248-424b-85a1-c0d9ad05b603" ContentTypeId="0x0101004F34529632943E4DBB820B36F0ABAA060601" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
-    <Entiteit_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Record</Entiteit_x0020_type>
-    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-183321</_dlc_DocId>
-    <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
-    <TaxCatchAll xmlns="d59e9867-4acc-40d5-91da-91f4047d1695"/>
-    <Omschrijving xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Aanmaakdatum xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <Document_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
-      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-183321</Url>
-      <Description>PNHZET2ZRHHM-1647798991-183321</Description>
-    </_dlc_DocIdUrl>
-    <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Algemeen - Word" ma:contentTypeID="0x0101004F34529632943E4DBB820B36F0ABAA0606010086381A6D56669A4DB59F7772448721B1" ma:contentTypeVersion="5" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="8fe95572a7a7878b61abe4cdcaa95a61">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d59e9867-4acc-40d5-91da-91f4047d1695" xmlns:ns3="fbe582d4-4cd9-4e01-adc0-428c7d30a990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b624776c1a3c75443e1a1b758f5efa1" ns2:_="" ns3:_="">
     <xsd:import namespace="d59e9867-4acc-40d5-91da-91f4047d1695"/>
@@ -23110,28 +23370,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="7c1d69d6-3248-424b-85a1-c0d9ad05b603" ContentTypeId="0x0101004F34529632943E4DBB820B36F0ABAA060601" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C93CFFD-81C7-408F-9360-B07E2D660303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2BE5C7-D2B0-4B18-9D85-BE52E70FE1F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{629D2343-3DBC-4425-9979-C53AF3E8F60A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -23148,7 +23387,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2BE5C7-D2B0-4B18-9D85-BE52E70FE1F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C93CFFD-81C7-408F-9360-B07E2D660303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66FD23B-6941-41A1-8A1A-FC46E735FC7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{743CA991-A91A-4ABA-A663-E5C279512219}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23165,12 +23428,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66FD23B-6941-41A1-8A1A-FC46E735FC7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>